--- a/Documents/海饼干复仇记-里程碑.xlsx
+++ b/Documents/海饼干复仇记-里程碑.xlsx
@@ -1,26 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品详细设计完成，包括游戏模型设计，游戏策划设计，游戏美术需求，游戏功能需求，游戏音效等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术方案确定，开发出拥有基本功能的游戏 demo，战斗逻辑（2D物理引擎）横版移动，战斗AI，技能卡牌（4种），UI弹窗（英雄管理，武器管理，卡牌管理，商店），可以更换英雄，火器塔组装，更换卡牌，商店列表，读取配置文件，性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-5 到 1 - 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于【梅露可物语】的战斗以及城市中的背景乐,选择外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-4 到 12-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成游戏 80% 的UI设计，场景2套，英雄（3个包括近战、远程、法师，包含动作8种），武器（近战、远程、法师3种），敌人（4近战、远程、法师、Boss种），火器塔（1套4层）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -32,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +145,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +487,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>